--- a/assets/templates/tariff_upload_template.xlsx
+++ b/assets/templates/tariff_upload_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13EA0D-1C6D-404B-AD54-1566C03BADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E79441-8CD3-47EF-A800-DA56FA6FEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>tariff_id</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>To Geo</t>
+  </si>
+  <si>
+    <t>max_value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
   </si>
 </sst>
 </file>
@@ -432,15 +438,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,31 +478,34 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -510,27 +528,30 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/assets/templates/tariff_upload_template.xlsx
+++ b/assets/templates/tariff_upload_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E79441-8CD3-47EF-A800-DA56FA6FEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA52424-8124-41E0-B54E-62F2E6952E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tariff" sheetId="1" r:id="rId1"/>
+    <sheet name="tariff_ic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>tariff_id</t>
   </si>
@@ -121,6 +122,30 @@
   </si>
   <si>
     <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>vendor_group</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>uom</t>
+  </si>
+  <si>
+    <t>Trucker Group</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Min Value</t>
+  </si>
+  <si>
+    <t>Max Value</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -156,8 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,22 +468,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -553,6 +590,74 @@
       </c>
       <c r="P2" t="s">
         <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068A60E-8A8B-4501-918C-409647906798}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
